--- a/strict-mitre.xlsx
+++ b/strict-mitre.xlsx
@@ -1830,7 +1830,7 @@
         <v>0.9222222222222223</v>
       </c>
       <c r="C2">
-        <v>0.6144578313253012</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D2">
         <v>0.6555555555555556</v>
@@ -1850,7 +1850,7 @@
         <v>0.9724770642201835</v>
       </c>
       <c r="C3">
-        <v>0.9716981132075472</v>
+        <v>0.944954128440367</v>
       </c>
       <c r="D3">
         <v>0.9724770642201835</v>
@@ -1870,7 +1870,7 @@
         <v>0.944954128440367</v>
       </c>
       <c r="C4">
-        <v>0.9805825242718447</v>
+        <v>0.926605504587156</v>
       </c>
       <c r="D4">
         <v>0.944954128440367</v>
@@ -1890,7 +1890,7 @@
         <v>0.8256880733944955</v>
       </c>
       <c r="C5">
-        <v>0.7111111111111111</v>
+        <v>0.5871559633027523</v>
       </c>
       <c r="D5">
         <v>0.6788990825688074</v>
@@ -1910,7 +1910,7 @@
         <v>0.963302752293578</v>
       </c>
       <c r="C6">
-        <v>0.7523809523809524</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="D6">
         <v>0.8623853211009175</v>
@@ -1950,7 +1950,7 @@
         <v>0.7064220183486238</v>
       </c>
       <c r="C8">
-        <v>0.6753246753246753</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="D8">
         <v>0.5871559633027523</v>
@@ -1970,7 +1970,7 @@
         <v>0.8165137614678899</v>
       </c>
       <c r="C9">
-        <v>0.5842696629213483</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="D9">
         <v>0.6513761467889908</v>
@@ -1990,7 +1990,7 @@
         <v>0.981651376146789</v>
       </c>
       <c r="C10">
-        <v>0.9439252336448598</v>
+        <v>0.926605504587156</v>
       </c>
       <c r="D10">
         <v>0.9357798165137615</v>
@@ -2010,7 +2010,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>0.9206349206349206</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D11">
         <v>0.6555555555555556</v>
@@ -2030,7 +2030,7 @@
         <v>0.8990825688073395</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="D12">
         <v>0.6513761467889908</v>
@@ -2050,7 +2050,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C13">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D13">
         <v>0.7666666666666667</v>
@@ -2070,7 +2070,7 @@
         <v>0.7614678899082569</v>
       </c>
       <c r="C14">
-        <v>0.5903614457831325</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="D14">
         <v>0.6055045871559633</v>
@@ -2090,7 +2090,7 @@
         <v>0.8623853211009175</v>
       </c>
       <c r="C15">
-        <v>0.8617021276595744</v>
+        <v>0.7431192660550459</v>
       </c>
       <c r="D15">
         <v>0.7798165137614679</v>
@@ -2110,7 +2110,7 @@
         <v>0.8165137614678899</v>
       </c>
       <c r="C16">
-        <v>0.8426966292134831</v>
+        <v>0.6880733944954128</v>
       </c>
       <c r="D16">
         <v>0.7798165137614679</v>
@@ -2130,7 +2130,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="C17">
-        <v>0.9655172413793104</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D17">
         <v>0.9444444444444444</v>
@@ -2150,7 +2150,7 @@
         <v>0.9222222222222223</v>
       </c>
       <c r="C18">
-        <v>0.9879518072289156</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="D18">
         <v>0.9222222222222223</v>
@@ -2170,7 +2170,7 @@
         <v>0.981651376146789</v>
       </c>
       <c r="C19">
-        <v>0.6728971962616822</v>
+        <v>0.6605504587155964</v>
       </c>
       <c r="D19">
         <v>0.7706422018348624</v>
@@ -2190,7 +2190,7 @@
         <v>0.8990825688073395</v>
       </c>
       <c r="C20">
-        <v>0.9897959183673469</v>
+        <v>0.8899082568807339</v>
       </c>
       <c r="D20">
         <v>0.8990825688073395</v>
@@ -2210,7 +2210,7 @@
         <v>0.981651376146789</v>
       </c>
       <c r="C21">
-        <v>0.9719626168224299</v>
+        <v>0.981651376146789</v>
       </c>
       <c r="D21">
         <v>0.981651376146789</v>
@@ -2230,7 +2230,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="C22">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
         <v>0.5555555555555556</v>
@@ -2250,7 +2250,7 @@
         <v>0.5688073394495413</v>
       </c>
       <c r="C23">
-        <v>0.3225806451612903</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="D23">
         <v>0.2110091743119266</v>
@@ -2270,7 +2270,7 @@
         <v>0.7888888888888889</v>
       </c>
       <c r="C24">
-        <v>0.8028169014084507</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D24">
         <v>0.6888888888888889</v>
@@ -2290,7 +2290,7 @@
         <v>0.9908256880733946</v>
       </c>
       <c r="C25">
-        <v>0.9444444444444444</v>
+        <v>0.9357798165137615</v>
       </c>
       <c r="D25">
         <v>0.9908256880733946</v>
@@ -2310,7 +2310,7 @@
         <v>0.7555555555555555</v>
       </c>
       <c r="C26">
-        <v>0.3235294117647059</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="D26">
         <v>0.3111111111111111</v>
@@ -2330,7 +2330,7 @@
         <v>0.8073394495412844</v>
       </c>
       <c r="C27">
-        <v>0.7045454545454546</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="D27">
         <v>0.6146788990825688</v>
@@ -2350,7 +2350,7 @@
         <v>0.8440366972477065</v>
       </c>
       <c r="C28">
-        <v>0.6847826086956522</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="D28">
         <v>0.7981651376146789</v>
@@ -2370,7 +2370,7 @@
         <v>0.963302752293578</v>
       </c>
       <c r="C29">
-        <v>0.9428571428571428</v>
+        <v>0.9082568807339449</v>
       </c>
       <c r="D29">
         <v>0.9174311926605505</v>
@@ -2390,7 +2390,7 @@
         <v>0.8440366972477065</v>
       </c>
       <c r="C30">
-        <v>0.7065217391304348</v>
+        <v>0.5963302752293578</v>
       </c>
       <c r="D30">
         <v>0.7431192660550459</v>
@@ -2410,7 +2410,7 @@
         <v>0.8256880733944955</v>
       </c>
       <c r="C31">
-        <v>0.5111111111111111</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="D31">
         <v>0.5229357798165137</v>
@@ -36947,7 +36947,7 @@
         <v>416</v>
       </c>
       <c r="H18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I18" t="s">
         <v>451</v>
@@ -38061,7 +38061,7 @@
         <v>430</v>
       </c>
       <c r="H62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I62" t="s">
         <v>451</v>
@@ -39041,7 +39041,7 @@
         <v>326</v>
       </c>
       <c r="H99" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I99" t="s">
         <v>451</v>
@@ -39145,7 +39145,7 @@
         <v>448</v>
       </c>
       <c r="I103" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:9">
